--- a/Time_DQC.xlsx
+++ b/Time_DQC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="31">
   <si>
     <t>convex</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,14 +133,6 @@
   </si>
   <si>
     <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.15s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.7MB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -498,7 +490,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="A8" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -712,7 +704,7 @@
         <v>42096</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -784,68 +776,10 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>42097</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>42097</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" t="s">
-        <v>27</v>
-      </c>
+      <c r="A9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
